--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/land/CApULAbIFM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\CApULAbIFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B00B184-AF7A-114F-AD04-FB906E974609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF08A53-F280-4704-83EC-0E3DACD573C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
+    <sheet name="CApULAbIFM" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
@@ -47,47 +46,14 @@
     <t>Per Acre</t>
   </si>
   <si>
-    <t>Molecular weight of C</t>
-  </si>
-  <si>
-    <t>Molecular weight of CO2</t>
-  </si>
-  <si>
-    <t>Total acres in study</t>
-  </si>
-  <si>
-    <t>Maximum carbon sequestration (MMT per year)</t>
-  </si>
-  <si>
-    <t>grams CO2 per acre per year</t>
-  </si>
-  <si>
-    <t>g per ton</t>
-  </si>
-  <si>
-    <t>Incentives for Carbon Sequestration Using Forest Management</t>
-  </si>
-  <si>
-    <t>Oregon State University</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/269692087_Incentives_for_Carbon_Sequestration_Using_Forest_Management</t>
-  </si>
-  <si>
-    <t>Figure 2</t>
-  </si>
-  <si>
-    <t>The source data represents improved forest management practices on existing non-harvested timberland.</t>
-  </si>
-  <si>
-    <t>Nevada</t>
+    <t>consultation with American Forest Foundation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,14 +65,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,28 +87,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,59 +115,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>208769</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE177CA-FBAB-4375-9546-D6F515F500BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="1676400"/>
-          <a:ext cx="6247619" cy="4961905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,9 +156,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +191,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +243,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,143 +436,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="7">
-        <v>45296</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4">
-        <v>2015</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <f>42*1000000</f>
-        <v>42000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <f>1000000</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <f>(B4*B3/B2*1000000)/B1*B5</f>
-        <v>523809.52380952385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -649,23 +477,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>Calculations!B6</f>
-        <v>523809.52380952385</v>
+        <f>1.5*10^6</f>
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\CApULAbIFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/land/CApULAbIFM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF08A53-F280-4704-83EC-0E3DACD573C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B00B184-AF7A-114F-AD04-FB906E974609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CApULAbIFM" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
@@ -46,14 +47,47 @@
     <t>Per Acre</t>
   </si>
   <si>
-    <t>consultation with American Forest Foundation</t>
+    <t>Molecular weight of C</t>
+  </si>
+  <si>
+    <t>Molecular weight of CO2</t>
+  </si>
+  <si>
+    <t>Total acres in study</t>
+  </si>
+  <si>
+    <t>Maximum carbon sequestration (MMT per year)</t>
+  </si>
+  <si>
+    <t>grams CO2 per acre per year</t>
+  </si>
+  <si>
+    <t>g per ton</t>
+  </si>
+  <si>
+    <t>Incentives for Carbon Sequestration Using Forest Management</t>
+  </si>
+  <si>
+    <t>Oregon State University</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/269692087_Incentives_for_Carbon_Sequestration_Using_Forest_Management</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>The source data represents improved forest management practices on existing non-harvested timberland.</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +99,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,19 +129,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -115,10 +166,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208769</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE177CA-FBAB-4375-9546-D6F515F500BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="1676400"/>
+          <a:ext cx="6247619" cy="4961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,9 +256,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,26 +291,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,26 +326,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,37 +502,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <f>42*1000000</f>
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>(B4*B3/B2*1000000)/B1*B5</f>
+        <v>523809.52380952385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -477,23 +649,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>1.5*10^6</f>
-        <v>1500000</v>
+        <f>Calculations!B6</f>
+        <v>523809.52380952385</v>
       </c>
     </row>
   </sheetData>
